--- a/error_log_file_example_XLSX_50.xlsx
+++ b/error_log_file_example_XLSX_50.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
-  <si>
-    <t>customerId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">Customer ID</t>
   </si>
   <si>
     <t xml:space="preserve">First Name</t>
@@ -28,15 +28,15 @@
     <t>Country</t>
   </si>
   <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Telephone</t>
   </si>
   <si>
     <t>Dulce</t>
   </si>
   <si>
+    <t>XYZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -340,7 +340,7 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Cannot get a STRING value from a NUMERIC cell</t>
+    <t>Missing value for: Last Name</t>
   </si>
 </sst>
 </file>
@@ -909,9 +909,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" t="s">
         <v>107</v>
       </c>
@@ -921,19 +919,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1234</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
         <v>1562</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" ht="12.800000000000001">
@@ -942,9 +937,6 @@
       </c>
       <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>5678</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>

--- a/error_log_file_example_XLSX_50.xlsx
+++ b/error_log_file_example_XLSX_50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">Customer ID</t>
   </si>
@@ -34,81 +34,84 @@
     <t>Dulce</t>
   </si>
   <si>
-    <t>XYZ</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Britain</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Hanner</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t>Mara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Britain</t>
-  </si>
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>Gent</t>
+    <t>Nereida</t>
+  </si>
+  <si>
+    <t>Magwood</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Brumm</t>
+  </si>
+  <si>
+    <t>Etta</t>
+  </si>
+  <si>
+    <t>Hurn</t>
+  </si>
+  <si>
+    <t>Earlean</t>
+  </si>
+  <si>
+    <t>Melgar</t>
+  </si>
+  <si>
+    <t>Vincenza</t>
+  </si>
+  <si>
+    <t>Weiland</t>
+  </si>
+  <si>
+    <t>Fallon</t>
+  </si>
+  <si>
+    <t>Winward</t>
+  </si>
+  <si>
+    <t>Arcelia</t>
+  </si>
+  <si>
+    <t>Bouska</t>
+  </si>
+  <si>
+    <t>Franklyn</t>
+  </si>
+  <si>
+    <t>Unknow</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>Kathleen</t>
-  </si>
-  <si>
-    <t>Hanner</t>
-  </si>
-  <si>
-    <t>Nereida</t>
-  </si>
-  <si>
-    <t>Magwood</t>
-  </si>
-  <si>
-    <t>Gaston</t>
-  </si>
-  <si>
-    <t>Brumm</t>
-  </si>
-  <si>
-    <t>Etta</t>
-  </si>
-  <si>
-    <t>Hurn</t>
-  </si>
-  <si>
-    <t>Earlean</t>
-  </si>
-  <si>
-    <t>Melgar</t>
-  </si>
-  <si>
-    <t>Vincenza</t>
-  </si>
-  <si>
-    <t>Weiland</t>
-  </si>
-  <si>
-    <t>Fallon</t>
-  </si>
-  <si>
-    <t>Winward</t>
-  </si>
-  <si>
-    <t>Arcelia</t>
-  </si>
-  <si>
-    <t>Bouska</t>
-  </si>
-  <si>
-    <t>Franklyn</t>
-  </si>
-  <si>
-    <t>Unknow</t>
-  </si>
-  <si>
     <t>Sherron</t>
   </si>
   <si>
@@ -340,7 +343,16 @@
     <t>Error</t>
   </si>
   <si>
+    <t>Invalid data type for lastName. Expected string.</t>
+  </si>
+  <si>
+    <t>Invalid country value: India</t>
+  </si>
+  <si>
     <t>Missing value for: Last Name</t>
+  </si>
+  <si>
+    <t>Invalid country value: Pakistan</t>
   </si>
 </sst>
 </file>
@@ -911,7 +923,7 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="12.800000000000001">
@@ -921,14 +933,20 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>1562</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="12.800000000000001">
@@ -936,16 +954,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>1582</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="12.800000000000001">
@@ -953,16 +971,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>2587</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="12.800000000000001">
@@ -970,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>3549</v>
@@ -993,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2468</v>
@@ -1010,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2554</v>
@@ -1027,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>3598</v>
@@ -1044,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>2456</v>
@@ -1061,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>6548</v>
@@ -1078,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>5486</v>
@@ -1095,7 +1116,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1258</v>
@@ -1112,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>2579</v>
@@ -1123,13 +1144,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>3256</v>
@@ -1140,13 +1161,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>2587</v>
@@ -1157,13 +1178,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>3259</v>
@@ -1174,13 +1195,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>1546</v>
@@ -1191,13 +1212,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>3579</v>
@@ -1208,13 +1229,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>6597</v>
@@ -1225,13 +1246,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>9654</v>
@@ -1242,13 +1263,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>3569</v>
@@ -1259,13 +1280,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>2564</v>
@@ -1276,13 +1297,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>8561</v>
@@ -1293,13 +1314,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>5489</v>
@@ -1310,13 +1331,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>5489</v>
@@ -1327,13 +1348,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>6574</v>
@@ -1344,13 +1365,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>5555</v>
@@ -1361,13 +1382,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>6125</v>
@@ -1378,13 +1399,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>5412</v>
@@ -1395,13 +1416,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>3256</v>
@@ -1412,13 +1433,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>3264</v>
@@ -1429,13 +1450,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>4569</v>
@@ -1446,13 +1467,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>7521</v>
@@ -1463,13 +1484,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>6458</v>
@@ -1480,13 +1501,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>7569</v>
@@ -1497,13 +1518,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>8514</v>
@@ -1514,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>8563</v>
@@ -1531,13 +1552,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>8642</v>
@@ -1548,13 +1569,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>9536</v>
@@ -1565,13 +1586,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>2567</v>
@@ -1582,13 +1603,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>2154</v>
@@ -1599,13 +1620,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>3265</v>
@@ -1616,13 +1637,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>8765</v>
@@ -1633,13 +1654,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>3259</v>
@@ -1650,13 +1671,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>3567</v>
@@ -1667,13 +1688,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>6540</v>
@@ -1684,13 +1705,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>2654</v>
@@ -1701,13 +1722,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>6525</v>
@@ -1718,13 +1739,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>3265</v>
@@ -1735,13 +1756,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>3265</v>
@@ -1752,13 +1773,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>6125</v>
